--- a/hardware/sEHnsor/rev_a/sEHnsor_bom.xlsx
+++ b/hardware/sEHnsor/rev_a/sEHnsor_bom.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="90">
   <si>
     <t>Qty</t>
   </si>
@@ -92,34 +92,52 @@
     <t>0402 Capacitor</t>
   </si>
   <si>
+    <t>445-1236-1-ND</t>
+  </si>
+  <si>
     <t>220pF</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
+    <t>445-1251-1-ND</t>
+  </si>
+  <si>
     <t>1nF</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
+    <t>445-2651-1-ND</t>
+  </si>
+  <si>
     <t>0.1uF</t>
   </si>
   <si>
     <t>C5, C6, C7, C8, C9, C10, C11, C12</t>
   </si>
   <si>
+    <t>445-1265-1-ND</t>
+  </si>
+  <si>
     <t>1uF</t>
   </si>
   <si>
     <t>C13, C14, C15</t>
   </si>
   <si>
+    <t>445-4998-1-ND</t>
+  </si>
+  <si>
     <t>2.2uF</t>
   </si>
   <si>
-    <t>C18</t>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>445-10882-1-ND</t>
   </si>
   <si>
     <t>GECKO_POWER_SUPPLY_CONN</t>
@@ -134,16 +152,7 @@
     <t>Header on the gecko power supply board.</t>
   </si>
   <si>
-    <t>TC2030-CTX-NL</t>
-  </si>
-  <si>
-    <t>TC2030-IDC-NL</t>
-  </si>
-  <si>
-    <t>J2</t>
-  </si>
-  <si>
-    <t>Tag Connect footprint for ARM JTAG.</t>
+    <t>TMS-106-51-G-S-ND</t>
   </si>
   <si>
     <t>MOSFET-NCHANNELXFDN-3</t>
@@ -176,24 +185,36 @@
     <t>Resistor</t>
   </si>
   <si>
+    <t>RHM2.2KCECT-ND</t>
+  </si>
+  <si>
     <t>4.7k</t>
   </si>
   <si>
     <t>R3, R4, R5</t>
   </si>
   <si>
+    <t>RHM4.7KCECT-ND</t>
+  </si>
+  <si>
     <t>56k</t>
   </si>
   <si>
     <t>R6</t>
   </si>
   <si>
+    <t>RHM56KBHCT-ND</t>
+  </si>
+  <si>
     <t>4.7M</t>
   </si>
   <si>
     <t>R7</t>
   </si>
   <si>
+    <t>541-4.7MJCT-ND</t>
+  </si>
+  <si>
     <t>DS2411</t>
   </si>
   <si>
@@ -258,6 +279,12 @@
   </si>
   <si>
     <t>MHz RANGE CRYSTAL UNIT</t>
+  </si>
+  <si>
+    <t>SER3800CT-ND</t>
+  </si>
+  <si>
+    <t>732-FA128-32F20X-K3 </t>
   </si>
 </sst>
 </file>
@@ -346,12 +373,16 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -372,10 +403,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="pageBreakPreview" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D11" activeCellId="0" pane="topLeft" sqref="D11"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="H19" activeCellId="0" pane="topLeft" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -489,13 +520,16 @@
       <c r="F4" s="0" t="s">
         <v>24</v>
       </c>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
       <c r="A5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>21</v>
@@ -504,18 +538,21 @@
         <v>22</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>24</v>
       </c>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
       <c r="A6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>21</v>
@@ -524,10 +561,13 @@
         <v>22</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>24</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
@@ -535,7 +575,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>21</v>
@@ -544,10 +584,13 @@
         <v>22</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>24</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
@@ -555,7 +598,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>21</v>
@@ -564,18 +607,21 @@
         <v>22</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>24</v>
       </c>
+      <c r="G8" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
       <c r="A9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>21</v>
@@ -584,30 +630,36 @@
         <v>22</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>24</v>
       </c>
+      <c r="G9" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
       <c r="A10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
@@ -615,82 +667,91 @@
         <v>1</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
       <c r="A12" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
       <c r="A13" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
       <c r="A14" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>50</v>
-      </c>
       <c r="E14" s="0" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
@@ -698,19 +759,22 @@
         <v>1</v>
       </c>
       <c r="B15" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>52</v>
+      <c r="G15" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
@@ -718,19 +782,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>52</v>
+        <v>69</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>70</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
@@ -738,22 +805,25 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>63</v>
+        <v>75</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>76</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
@@ -761,25 +831,28 @@
         <v>1</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>69</v>
+        <v>82</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>83</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
@@ -787,54 +860,31 @@
         <v>1</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
-      <c r="A20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>80</v>
+        <v>87</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05416666666667" bottom="0.7875" header="0.7875" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="landscape" pageOrder="downThenOver" paperSize="1" scale="46" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="landscape" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;F</oddHeader>
     <oddFooter/>
